--- a/src/doc/结算进度.xlsx
+++ b/src/doc/结算进度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/go/etc/src/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F458D6A-CBED-6B41-9C89-F7A52FC53865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D14B8C-3626-774E-A013-63993C3456F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="1440" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
+    <workbookView xWindow="22280" yWindow="460" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1961,11 +1961,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="等线 (正文)"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1990,6 +1985,11 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="等线 (正文)"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2534,6 +2534,21 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2549,13 +2564,28 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2567,6 +2597,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,63 +2653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3005,7 +3005,7 @@
     </row>
     <row r="5" spans="2:4" ht="6" customHeight="1"/>
     <row r="6" spans="2:4">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="55"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3036,28 +3036,28 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="56"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="56"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="56"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3068,21 +3068,21 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="57"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="57"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3093,28 +3093,28 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="58"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="58"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="58"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3125,28 +3125,28 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="59"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="59"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="59"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3157,21 +3157,21 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="61"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="61"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="62"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
         <v>25</v>
@@ -6282,13 +6282,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="19" t="s">
         <v>320</v>
       </c>
@@ -6297,121 +6297,121 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="77"/>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="70" t="s">
         <v>322</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="73" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickTop="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="76" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="79"/>
+      <c r="E8" s="73" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="65"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="82" t="s">
         <v>335</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="77"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="57" t="s">
         <v>339</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6420,68 +6420,70 @@
       <c r="D14" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="73" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="77"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="77"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="1:5" ht="17" thickTop="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="88" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="65" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="77"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="94"/>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B7"/>
@@ -6498,8 +6500,6 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6508,255 +6508,255 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBDC72C-38C2-074F-AC35-1B5664FFEAD4}">
-  <dimension ref="C2:D56"/>
+  <dimension ref="C3:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="106.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="18">
-      <c r="C2" s="93" t="s">
+    <row r="3" spans="3:4" ht="18">
+      <c r="C3" s="55" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="D3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="D4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="D5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="D6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="D7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="D8" s="94" t="s">
+    <row r="9" spans="3:4">
+      <c r="D9" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="D9" t="s">
+    <row r="10" spans="3:4">
+      <c r="D10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="D12" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="D13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="D14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="D15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="D16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="D18" t="s">
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="D22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="D23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="D25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="D26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="D34" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="D35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="D36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="D37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="D39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="D40" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="D41" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="D42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="D43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="D47" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="D48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
         <v>404</v>
       </c>
     </row>

--- a/src/doc/结算进度.xlsx
+++ b/src/doc/结算进度.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/go/etc/src/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D14B8C-3626-774E-A013-63993C3456F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C95DCD9-1277-3E40-906F-CC9D6A00A3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="460" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
+    <workbookView xWindow="5780" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="3" xr2:uid="{1480D08C-B94D-144C-85E5-40C6CD614514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc256000004" localSheetId="0">Sheet1!$B$45</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="446">
   <si>
     <t>ETC支付-结算清分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1870,12 +1871,135 @@
     <t>更新消息记录【执行结果、处理时间】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>入库</t>
+  </si>
+  <si>
+    <t>结算定时任务</t>
+  </si>
+  <si>
+    <t>打包</t>
+  </si>
+  <si>
+    <t>原始应答确认（正常)</t>
+  </si>
+  <si>
+    <t>原始应答(异常)</t>
+  </si>
+  <si>
+    <t>记账</t>
+  </si>
+  <si>
+    <t>记账/列为争议</t>
+  </si>
+  <si>
+    <t>争议(确认支付)</t>
+  </si>
+  <si>
+    <t>争议(坏账)</t>
+  </si>
+  <si>
+    <t>清分</t>
+  </si>
+  <si>
+    <t>F_NB_JIESJG</t>
+  </si>
+  <si>
+    <t>F_NB_XMLDBBJ</t>
+  </si>
+  <si>
+    <t>F_DT_XMLDBSJ</t>
+  </si>
+  <si>
+    <t>当前时间</t>
+  </si>
+  <si>
+    <t>F_NB_CHULZT</t>
+  </si>
+  <si>
+    <t>F_DT_QINGFRQ</t>
+  </si>
+  <si>
+    <t>清分日期</t>
+  </si>
+  <si>
+    <t>F_DT_QINGFZT</t>
+  </si>
+  <si>
+    <t>F_NB_YUANSJYBBH</t>
+  </si>
+  <si>
+    <t>原始包编号</t>
+  </si>
+  <si>
+    <t>F_NB_YUANSJYBJYID</t>
+  </si>
+  <si>
+    <t>包ID</t>
+  </si>
+  <si>
+    <t>F_NB_YUANSYDBBH</t>
+  </si>
+  <si>
+    <t>原始应答包编号</t>
+  </si>
+  <si>
+    <t>F_DT_YUANSYDBCLSJ</t>
+  </si>
+  <si>
+    <t>原始应答包处理时间</t>
+  </si>
+  <si>
+    <t>F_NB_JIZBBH</t>
+  </si>
+  <si>
+    <t>记账包编号</t>
+  </si>
+  <si>
+    <t>F_DT_JIZBCLSJ</t>
+  </si>
+  <si>
+    <t>记账包处理时间</t>
+  </si>
+  <si>
+    <t>F_DT_QUERZFSJ</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>F_NB_ZHENGYCLJGBBH</t>
+  </si>
+  <si>
+    <t>争议处理包编号</t>
+  </si>
+  <si>
+    <t>F_NB_ZHENGYBCLSJ</t>
+  </si>
+  <si>
+    <t>F_NB_BEI1</t>
+  </si>
+  <si>
+    <t>F_NB_QINGFBBH</t>
+  </si>
+  <si>
+    <t>清分包编号</t>
+  </si>
+  <si>
+    <t>F_DT_QINGFBCLSJ</t>
+  </si>
+  <si>
+    <t>清分包处理时间</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1991,8 +2115,36 @@
       <color theme="5"/>
       <name val="等线 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2080,6 +2232,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E0EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD8C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,7 +2586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2564,6 +2782,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2594,9 +2824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,14 +2872,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6282,13 +6542,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="19" t="s">
         <v>320</v>
       </c>
@@ -6297,120 +6557,120 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="66"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="74" t="s">
         <v>322</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="77" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickTop="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="79" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="73" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="77" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="66"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="85" t="s">
         <v>335</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="77" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="66"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="66"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="57" t="s">
         <v>339</v>
       </c>
@@ -6420,68 +6680,70 @@
       <c r="D14" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="77" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="66"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="58"/>
       <c r="C15" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="78"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="58"/>
       <c r="C16" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="58"/>
       <c r="C17" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="1:5" ht="17" thickTop="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="75" t="s">
+      <c r="D18" s="65"/>
+      <c r="E18" s="67" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="66"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="94"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="A2:A20"/>
@@ -6498,8 +6760,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6510,14 +6770,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBDC72C-38C2-074F-AC35-1B5664FFEAD4}">
   <dimension ref="C3:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="106.83203125" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="18">
@@ -6764,4 +7025,432 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39186794-CC16-664F-980B-20B908E46C61}">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17" thickBot="1"/>
+    <row r="3" spans="2:12" ht="33" thickBot="1">
+      <c r="B3" s="95" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>413</v>
+      </c>
+      <c r="K3" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="17" thickBot="1">
+      <c r="B4" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="98">
+        <v>0</v>
+      </c>
+      <c r="D4" s="99">
+        <v>98</v>
+      </c>
+      <c r="E4" s="100">
+        <v>1</v>
+      </c>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102">
+        <v>1</v>
+      </c>
+      <c r="I4" s="99">
+        <v>2</v>
+      </c>
+      <c r="J4" s="103">
+        <v>1</v>
+      </c>
+      <c r="K4" s="104">
+        <v>3</v>
+      </c>
+      <c r="L4" s="101"/>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1">
+      <c r="B5" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="98">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101"/>
+      <c r="E5" s="100">
+        <v>1</v>
+      </c>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+    </row>
+    <row r="6" spans="2:12" ht="17" thickBot="1">
+      <c r="B6" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="2:12" ht="17" thickBot="1">
+      <c r="B7" s="97" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="106">
+        <v>100</v>
+      </c>
+      <c r="H7" s="102">
+        <v>2</v>
+      </c>
+      <c r="I7" s="99">
+        <v>0</v>
+      </c>
+      <c r="J7" s="105"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1">
+      <c r="B8" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="L8" s="102" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="17" thickBot="1">
+      <c r="B9" s="97" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="103">
+        <v>1</v>
+      </c>
+      <c r="K9" s="104">
+        <v>1</v>
+      </c>
+      <c r="L9" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="29" thickBot="1">
+      <c r="B10" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="100" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+    </row>
+    <row r="11" spans="2:12" ht="29" thickBot="1">
+      <c r="B11" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="100" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+    </row>
+    <row r="12" spans="2:12" ht="29" thickBot="1">
+      <c r="B12" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+    </row>
+    <row r="13" spans="2:12" ht="29" thickBot="1">
+      <c r="B13" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="107" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+    </row>
+    <row r="14" spans="2:12" ht="17" thickBot="1">
+      <c r="B14" s="97" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="2:12" ht="29" thickBot="1">
+      <c r="B15" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+    </row>
+    <row r="16" spans="2:12" ht="29" thickBot="1">
+      <c r="B16" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="J16" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="K16" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="L16" s="101"/>
+    </row>
+    <row r="17" spans="2:12" ht="29" thickBot="1">
+      <c r="B17" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+    </row>
+    <row r="18" spans="2:12" ht="29" thickBot="1">
+      <c r="B18" s="97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="L18" s="101"/>
+    </row>
+    <row r="19" spans="2:12" ht="29" thickBot="1">
+      <c r="B19" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" s="101"/>
+    </row>
+    <row r="20" spans="2:12" ht="17" thickBot="1">
+      <c r="B20" s="97" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="98">
+        <v>1</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+    </row>
+    <row r="21" spans="2:12" ht="29" thickBot="1">
+      <c r="B21" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="108" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="29" thickBot="1">
+      <c r="B22" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="108" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>